--- a/DOWNLOADS/EDITAIS/U_980489_E_900132025_30-09-2025_09h00m/U_980489_E_900132025_30-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_980489_E_900132025_30-09-2025_09h00m/U_980489_E_900132025_30-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="203">
   <si>
     <t>Nº</t>
   </si>
@@ -610,340 +610,7 @@
     <t>Rastreador Rastreador Tipo: Dissimulado, Dimensões: 17,50 X 10,50 X 5 CM, Alimentação: 12 V, Alimentação Modem Celular: 6 V, Alimentação Gps: 9.60 V, Tipo Modem: Analogo Amps, Características Adicionais: Magnet M Out Com Expuxo Magnético De 90 Kg, Celu -</t>
   </si>
   <si>
-    <t>ABRAÇADEIRA NYLON ENFORCA GATO 2,5</t>
-  </si>
-  <si>
-    <t>ADAPTADOR USB WIRELESS 300 MBPS - IEE 802.11N</t>
-  </si>
-  <si>
-    <t>ADAPTADOR WIRELESS USB</t>
-  </si>
-  <si>
-    <t>ADAPTADOR WIRELESS USB DUAL BAND</t>
-  </si>
-  <si>
-    <t>ALCOOL ISOPROPILICO</t>
-  </si>
-  <si>
-    <t>ALICATE CRIMPAR RJ45 VAZADO</t>
-  </si>
-  <si>
-    <t>BATERIA 3032 PARA PLACA MÃE</t>
-  </si>
-  <si>
-    <t>BATERIA DE LÍTIO CR2032</t>
-  </si>
-  <si>
-    <t>BATERIA P/NOBREAK 12V</t>
-  </si>
-  <si>
-    <t>CABE DE ENGATE RÁPIDO PARA BATERIA EXTERNA</t>
-  </si>
-  <si>
-    <t>CABE DE FORÇA ENERGIA</t>
-  </si>
-  <si>
-    <t>CABE HDMI 10M</t>
-  </si>
-  <si>
-    <t>CABE HDMI 20M</t>
-  </si>
-  <si>
-    <t>CABE HDMI 2M</t>
-  </si>
-  <si>
-    <t>CABE LAN CAT5E</t>
-  </si>
-  <si>
-    <t>CABE VGA</t>
-  </si>
-  <si>
-    <t>CAIXA DE CABO REDE CAT6</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM P/ NOTBOOK E PC</t>
-  </si>
-  <si>
-    <t>CANETA TOUCH SCREEN</t>
-  </si>
-  <si>
-    <t>CASE PARA HD 3.0 EXTERNO</t>
-  </si>
-  <si>
-    <t>COMPUTADOR COMPLETO I5</t>
-  </si>
-  <si>
-    <t>COMPUTADOR CORE I3 COMPLETO</t>
-  </si>
-  <si>
-    <t>COMPUTADOR GAMER COMPLETO I7</t>
-  </si>
-  <si>
-    <t>CONECTOR RJ-45 FÊMEA CAT5E</t>
-  </si>
-  <si>
-    <t>CONECTOR RJ-45 MACHO CAT5E</t>
-  </si>
-  <si>
-    <t>CONECTOR RJ45</t>
-  </si>
-  <si>
-    <t>CONJUNTO TOMADA RJ45 CAT5E</t>
-  </si>
-  <si>
-    <t>CONVERSOR DE HDMI P/ VGA</t>
-  </si>
-  <si>
-    <t>DATASHOW</t>
-  </si>
-  <si>
-    <t>ESTABILIZADOR 1000 VA</t>
-  </si>
-  <si>
-    <t>ESTABILIZADOR 500VA</t>
-  </si>
-  <si>
-    <t>ESTABILIZADOR 600VA</t>
-  </si>
-  <si>
-    <t>FILTRO DE LINHA C/6 TOMADAS</t>
-  </si>
-  <si>
-    <t>FONTE</t>
-  </si>
-  <si>
-    <t>FONTE ATX</t>
-  </si>
-  <si>
-    <t>FONTE ATX 500W - 24 PINOS</t>
-  </si>
-  <si>
-    <t>FONTE CARREGADOR</t>
-  </si>
-  <si>
-    <t>HD EXTERNO 1TB</t>
-  </si>
-  <si>
-    <t>HD EXTERNO 2TB</t>
-  </si>
-  <si>
-    <t>HD EXTERNO 4TB</t>
-  </si>
-  <si>
-    <t>HUB 4 PORTAS USB 2.0</t>
-  </si>
-  <si>
-    <t>HUB USB 3.0</t>
-  </si>
-  <si>
-    <t>IMPRESSORA (FUNÇAO UNICA)</t>
-  </si>
-  <si>
-    <t>IMPRESSORA JATO DE TINTAS 4 CORES</t>
-  </si>
-  <si>
-    <t>IMPRESSORA LASER MULTIFUNCIONAL</t>
-  </si>
-  <si>
-    <t>IMPRESSORA MULT LASER, MONOCROMATICA</t>
-  </si>
-  <si>
-    <t>KIT TECLADO E MOUSE SEM FIO</t>
-  </si>
-  <si>
-    <t>LIMPA CONTATO -300 ML</t>
-  </si>
-  <si>
-    <t>MEMÓRIA DDR3 4GB</t>
-  </si>
-  <si>
-    <t>MEMÓRIA DDR3 8GB 1600 MHZ</t>
-  </si>
-  <si>
-    <t>MEMÓRIA DDR4</t>
-  </si>
-  <si>
-    <t>MEMÓRIA DDR4 8 GB</t>
-  </si>
-  <si>
-    <t>MEMÓRIA NOTEBOOK DDR3 4GB 1333 MHZ</t>
-  </si>
-  <si>
-    <t>MEMÓRIA NOTEBOOK DDR3 8GB 1600MHZ</t>
-  </si>
-  <si>
-    <t>MEMÓRIA PARA DESKTOP DDR4 16GB</t>
-  </si>
-  <si>
-    <t>MEMÓRIA RAM 8GB DE RAM DO TIPO DDR4</t>
-  </si>
-  <si>
-    <t>MEMORIA RAM CAPACIDADE DE 4GB</t>
-  </si>
-  <si>
-    <t>MONITOR 19,5 POLEGADAS</t>
-  </si>
-  <si>
-    <t>MONITOR FULL HD 21" VGA HDMI DVI</t>
-  </si>
-  <si>
-    <t>MOUSE ÓPTICO 3 BOTÕES USB</t>
-  </si>
-  <si>
-    <t>MOUSE PAD COM APOIO PARA PUNHO</t>
-  </si>
-  <si>
-    <t>MOUSE SEM FIO</t>
-  </si>
-  <si>
-    <t>MULTÍMETRO DIGITAL</t>
-  </si>
-  <si>
-    <t>NOBREAK 1400VA</t>
-  </si>
-  <si>
-    <t>NOBREAK 1800 VA</t>
-  </si>
-  <si>
-    <t>NOBREAK 2200VA</t>
-  </si>
-  <si>
-    <t>NOBREAK 3200 VA</t>
-  </si>
-  <si>
-    <t>NOBREAK 600VA</t>
-  </si>
-  <si>
-    <t>NOBREAK 700 VA C/ ENGATE P/BATERIA EXTERNA</t>
-  </si>
-  <si>
-    <t>NOTEBOOK CORE I5</t>
-  </si>
-  <si>
-    <t>NOTEBOOK CORE I7</t>
-  </si>
-  <si>
-    <t>NOTEBOOK I3</t>
-  </si>
-  <si>
-    <t>NOTEBOOK PROCESSADOR I5</t>
-  </si>
-  <si>
-    <t>ORGANIZADOR DE CABOS E FIO ESPIRAL</t>
-  </si>
-  <si>
-    <t>PASTA TERMICA 50GR</t>
-  </si>
-  <si>
-    <t>PENDRIVE 32 GB</t>
-  </si>
-  <si>
-    <t>PENDRIVE 64GB</t>
-  </si>
-  <si>
-    <t>PLACA DE REDE 10/100/1000 PCI EXPRESS</t>
-  </si>
-  <si>
-    <t>PLACA DE VIDEO</t>
-  </si>
-  <si>
-    <t>PLACA DE VÍDEO 2 GB</t>
-  </si>
-  <si>
-    <t>PLACA MÃE</t>
-  </si>
-  <si>
-    <t>PLACA MÃE 01</t>
-  </si>
-  <si>
-    <t>PLACA MÃE PLATAFORMA</t>
-  </si>
-  <si>
-    <t>PLACA WIRELESS</t>
-  </si>
-  <si>
-    <t>PLUG RJ45</t>
-  </si>
-  <si>
-    <t>PROCESSADOR</t>
-  </si>
-  <si>
-    <t>PROCESSADOR CORE I3</t>
-  </si>
-  <si>
-    <t>PROCESSADOR CORE I7</t>
-  </si>
-  <si>
-    <t>PROJETOR POWERLITE E20</t>
-  </si>
-  <si>
-    <t>ROTEADOR GIGABIT EX141 WI-FI 6 DUAL BAND</t>
-  </si>
-  <si>
-    <t>ROTEADOR WIRELESS 1200MPBS</t>
-  </si>
-  <si>
-    <t>ROUTERBOARD</t>
-  </si>
-  <si>
-    <t>SCANNER DE MESA</t>
-  </si>
-  <si>
-    <t>SPLITTER</t>
-  </si>
-  <si>
-    <t>SSD 1TB</t>
-  </si>
-  <si>
-    <t>SSD 240GB</t>
-  </si>
-  <si>
-    <t>SSD 480GB</t>
-  </si>
-  <si>
-    <t>SSD 500GB</t>
-  </si>
-  <si>
-    <t>SUPORTE NOTEBOOK ARTICULADO DOBRAVEL</t>
-  </si>
-  <si>
-    <t>SUPORTE PARA PROJETOR</t>
-  </si>
-  <si>
-    <t>SWITCH 16 PORTAS</t>
-  </si>
-  <si>
-    <t>SWITCH 24 PORTAS</t>
-  </si>
-  <si>
-    <t>SWITCH 8 PORTAS GIGABIT</t>
-  </si>
-  <si>
-    <t>TABLET</t>
-  </si>
-  <si>
-    <t>TECLADO USB</t>
-  </si>
-  <si>
-    <t>TELA DE PROJEÇÃO</t>
-  </si>
-  <si>
-    <t>WEB CAM FULL HD</t>
-  </si>
-  <si>
-    <t>TINTAS CORES DIVERSAS IMPRESSORA EPSON</t>
-  </si>
-  <si>
-    <t>TONER BROTHER DCP-8157DN</t>
-  </si>
-  <si>
-    <t>TONER BROTHER DCP-1602</t>
-  </si>
-  <si>
-    <t>GPS PORTATIL</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>Tela Projeção Tela projeção Material Estrutura: Alumínio, Tipo Ajuste Tela: Retrátil, Material: Tecido Muslin, Cor: Verde, Altura: 300 CM, Largura: 400 CM, Características Adicionais: Portátil/Estojo Alumínio/Alça Anatômica Transporte</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1356,25 +1023,19 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" t="s">
-        <v>309</v>
-      </c>
       <c r="G2" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H2" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1385,25 +1046,19 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" t="s">
-        <v>309</v>
-      </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I3" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1414,25 +1069,19 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>720</v>
       </c>
-      <c r="E4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" t="s">
-        <v>309</v>
-      </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1443,25 +1092,19 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F5" t="s">
-        <v>309</v>
-      </c>
       <c r="G5" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1472,25 +1115,19 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>55</v>
       </c>
-      <c r="E6" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6" t="s">
-        <v>309</v>
-      </c>
       <c r="G6" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1501,25 +1138,19 @@
         <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" t="s">
-        <v>309</v>
-      </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I7" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1530,25 +1161,19 @@
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>111</v>
       </c>
-      <c r="E8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" t="s">
-        <v>309</v>
-      </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H8" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1559,25 +1184,19 @@
         <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" t="s">
-        <v>309</v>
-      </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H9" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I9" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1588,25 +1207,19 @@
         <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="D10">
         <v>138</v>
       </c>
-      <c r="E10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" t="s">
-        <v>309</v>
-      </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H10" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I10" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1617,25 +1230,19 @@
         <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="D11">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
-        <v>309</v>
-      </c>
-      <c r="F11" t="s">
-        <v>309</v>
-      </c>
       <c r="G11" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H11" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1646,25 +1253,19 @@
         <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="D12">
         <v>114</v>
       </c>
-      <c r="E12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F12" t="s">
-        <v>309</v>
-      </c>
       <c r="G12" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H12" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I12" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1675,25 +1276,19 @@
         <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="D13">
         <v>124</v>
       </c>
-      <c r="E13" t="s">
-        <v>309</v>
-      </c>
-      <c r="F13" t="s">
-        <v>309</v>
-      </c>
       <c r="G13" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H13" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I13" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1704,25 +1299,19 @@
         <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="D14">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" t="s">
-        <v>309</v>
-      </c>
       <c r="G14" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H14" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1733,25 +1322,19 @@
         <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="D15">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
-        <v>309</v>
-      </c>
-      <c r="F15" t="s">
-        <v>309</v>
-      </c>
       <c r="G15" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H15" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I15" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1762,25 +1345,19 @@
         <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F16" t="s">
-        <v>309</v>
-      </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H16" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I16" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1791,25 +1368,19 @@
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="D17">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
-        <v>309</v>
-      </c>
-      <c r="F17" t="s">
-        <v>309</v>
-      </c>
       <c r="G17" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H17" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I17" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1820,25 +1391,19 @@
         <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="D18">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F18" t="s">
-        <v>309</v>
-      </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H18" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I18" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1849,25 +1414,19 @@
         <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" t="s">
-        <v>309</v>
-      </c>
       <c r="G19" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H19" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1878,25 +1437,19 @@
         <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="D20">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" t="s">
-        <v>309</v>
-      </c>
       <c r="G20" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H20" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I20" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1907,25 +1460,19 @@
         <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
-        <v>309</v>
-      </c>
-      <c r="F21" t="s">
-        <v>309</v>
-      </c>
       <c r="G21" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H21" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I21" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1936,25 +1483,19 @@
         <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="D22">
         <v>200</v>
       </c>
-      <c r="E22" t="s">
-        <v>309</v>
-      </c>
-      <c r="F22" t="s">
-        <v>309</v>
-      </c>
       <c r="G22" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H22" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I22" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1965,25 +1506,19 @@
         <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
       <c r="D23">
         <v>151</v>
       </c>
-      <c r="E23" t="s">
-        <v>309</v>
-      </c>
-      <c r="F23" t="s">
-        <v>309</v>
-      </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H23" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I23" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1994,25 +1529,19 @@
         <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>309</v>
-      </c>
-      <c r="F24" t="s">
-        <v>309</v>
-      </c>
       <c r="G24" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I24" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2023,25 +1552,19 @@
         <v>142</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
-        <v>309</v>
-      </c>
-      <c r="F25" t="s">
-        <v>309</v>
-      </c>
       <c r="G25" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I25" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2052,25 +1575,19 @@
         <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="D26">
         <v>37</v>
       </c>
-      <c r="E26" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" t="s">
-        <v>309</v>
-      </c>
       <c r="G26" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H26" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I26" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2081,25 +1598,19 @@
         <v>143</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="D27">
         <v>400</v>
       </c>
-      <c r="E27" t="s">
-        <v>309</v>
-      </c>
-      <c r="F27" t="s">
-        <v>309</v>
-      </c>
       <c r="G27" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H27" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I27" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2110,25 +1621,19 @@
         <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="D28">
         <v>154</v>
       </c>
-      <c r="E28" t="s">
-        <v>309</v>
-      </c>
-      <c r="F28" t="s">
-        <v>309</v>
-      </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I28" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2139,25 +1644,19 @@
         <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>309</v>
-      </c>
-      <c r="F29" t="s">
-        <v>309</v>
-      </c>
       <c r="G29" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H29" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I29" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2168,25 +1667,19 @@
         <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="D30">
         <v>24</v>
       </c>
-      <c r="E30" t="s">
-        <v>309</v>
-      </c>
-      <c r="F30" t="s">
-        <v>309</v>
-      </c>
       <c r="G30" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H30" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I30" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2197,25 +1690,19 @@
         <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="D31">
         <v>35</v>
       </c>
-      <c r="E31" t="s">
-        <v>309</v>
-      </c>
-      <c r="F31" t="s">
-        <v>309</v>
-      </c>
       <c r="G31" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H31" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I31" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2226,25 +1713,19 @@
         <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="D32">
         <v>87</v>
       </c>
-      <c r="E32" t="s">
-        <v>309</v>
-      </c>
-      <c r="F32" t="s">
-        <v>309</v>
-      </c>
       <c r="G32" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H32" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2255,25 +1736,19 @@
         <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="D33">
         <v>13</v>
       </c>
-      <c r="E33" t="s">
-        <v>309</v>
-      </c>
-      <c r="F33" t="s">
-        <v>309</v>
-      </c>
       <c r="G33" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H33" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I33" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2284,25 +1759,19 @@
         <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="D34">
         <v>107</v>
       </c>
-      <c r="E34" t="s">
-        <v>309</v>
-      </c>
-      <c r="F34" t="s">
-        <v>309</v>
-      </c>
       <c r="G34" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H34" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2313,25 +1782,19 @@
         <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
-      <c r="E35" t="s">
-        <v>309</v>
-      </c>
-      <c r="F35" t="s">
-        <v>309</v>
-      </c>
       <c r="G35" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H35" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2342,25 +1805,19 @@
         <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="D36">
         <v>136</v>
       </c>
-      <c r="E36" t="s">
-        <v>309</v>
-      </c>
-      <c r="F36" t="s">
-        <v>309</v>
-      </c>
       <c r="G36" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H36" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2371,25 +1828,19 @@
         <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="D37">
         <v>138</v>
       </c>
-      <c r="E37" t="s">
-        <v>309</v>
-      </c>
-      <c r="F37" t="s">
-        <v>309</v>
-      </c>
       <c r="G37" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H37" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2400,25 +1851,19 @@
         <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="D38">
         <v>40</v>
       </c>
-      <c r="E38" t="s">
-        <v>309</v>
-      </c>
-      <c r="F38" t="s">
-        <v>309</v>
-      </c>
       <c r="G38" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H38" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I38" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2429,25 +1874,19 @@
         <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="D39">
         <v>76</v>
       </c>
-      <c r="E39" t="s">
-        <v>309</v>
-      </c>
-      <c r="F39" t="s">
-        <v>309</v>
-      </c>
       <c r="G39" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H39" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2458,25 +1897,19 @@
         <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
-      <c r="E40" t="s">
-        <v>309</v>
-      </c>
-      <c r="F40" t="s">
-        <v>309</v>
-      </c>
       <c r="G40" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H40" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I40" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2487,25 +1920,19 @@
         <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="D41">
         <v>20</v>
       </c>
-      <c r="E41" t="s">
-        <v>309</v>
-      </c>
-      <c r="F41" t="s">
-        <v>309</v>
-      </c>
       <c r="G41" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H41" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I41" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2516,25 +1943,19 @@
         <v>154</v>
       </c>
       <c r="C42" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="D42">
         <v>24</v>
       </c>
-      <c r="E42" t="s">
-        <v>309</v>
-      </c>
-      <c r="F42" t="s">
-        <v>309</v>
-      </c>
       <c r="G42" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H42" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I42" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2545,25 +1966,19 @@
         <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="D43">
         <v>15</v>
       </c>
-      <c r="E43" t="s">
-        <v>309</v>
-      </c>
-      <c r="F43" t="s">
-        <v>309</v>
-      </c>
       <c r="G43" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H43" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I43" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2574,25 +1989,19 @@
         <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="D44">
         <v>23</v>
       </c>
-      <c r="E44" t="s">
-        <v>309</v>
-      </c>
-      <c r="F44" t="s">
-        <v>309</v>
-      </c>
       <c r="G44" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H44" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I44" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2603,25 +2012,19 @@
         <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="D45">
         <v>182</v>
       </c>
-      <c r="E45" t="s">
-        <v>309</v>
-      </c>
-      <c r="F45" t="s">
-        <v>309</v>
-      </c>
       <c r="G45" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H45" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2632,25 +2035,19 @@
         <v>156</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="D46">
         <v>62</v>
       </c>
-      <c r="E46" t="s">
-        <v>309</v>
-      </c>
-      <c r="F46" t="s">
-        <v>309</v>
-      </c>
       <c r="G46" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H46" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I46" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2661,25 +2058,19 @@
         <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="D47">
         <v>58</v>
       </c>
-      <c r="E47" t="s">
-        <v>309</v>
-      </c>
-      <c r="F47" t="s">
-        <v>309</v>
-      </c>
       <c r="G47" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H47" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2690,25 +2081,19 @@
         <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="D48">
         <v>58</v>
       </c>
-      <c r="E48" t="s">
-        <v>309</v>
-      </c>
-      <c r="F48" t="s">
-        <v>309</v>
-      </c>
       <c r="G48" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H48" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I48" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2719,25 +2104,19 @@
         <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="D49">
         <v>114</v>
       </c>
-      <c r="E49" t="s">
-        <v>309</v>
-      </c>
-      <c r="F49" t="s">
-        <v>309</v>
-      </c>
       <c r="G49" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="H49" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I49" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2748,25 +2127,19 @@
         <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="D50">
         <v>10</v>
       </c>
-      <c r="E50" t="s">
-        <v>309</v>
-      </c>
-      <c r="F50" t="s">
-        <v>309</v>
-      </c>
       <c r="G50" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H50" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I50" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2777,25 +2150,19 @@
         <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="D51">
         <v>32</v>
       </c>
-      <c r="E51" t="s">
-        <v>309</v>
-      </c>
-      <c r="F51" t="s">
-        <v>309</v>
-      </c>
       <c r="G51" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H51" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I51" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2806,25 +2173,19 @@
         <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="D52">
         <v>17</v>
       </c>
-      <c r="E52" t="s">
-        <v>309</v>
-      </c>
-      <c r="F52" t="s">
-        <v>309</v>
-      </c>
       <c r="G52" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H52" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I52" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2835,25 +2196,19 @@
         <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="D53">
         <v>60</v>
       </c>
-      <c r="E53" t="s">
-        <v>309</v>
-      </c>
-      <c r="F53" t="s">
-        <v>309</v>
-      </c>
       <c r="G53" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H53" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I53" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2864,25 +2219,19 @@
         <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
-      <c r="E54" t="s">
-        <v>309</v>
-      </c>
-      <c r="F54" t="s">
-        <v>309</v>
-      </c>
       <c r="G54" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H54" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I54" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2893,25 +2242,19 @@
         <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="D55">
         <v>10</v>
       </c>
-      <c r="E55" t="s">
-        <v>309</v>
-      </c>
-      <c r="F55" t="s">
-        <v>309</v>
-      </c>
       <c r="G55" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H55" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I55" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2922,25 +2265,19 @@
         <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="D56">
         <v>100</v>
       </c>
-      <c r="E56" t="s">
-        <v>309</v>
-      </c>
-      <c r="F56" t="s">
-        <v>309</v>
-      </c>
       <c r="G56" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H56" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I56" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2951,25 +2288,19 @@
         <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="D57">
         <v>12</v>
       </c>
-      <c r="E57" t="s">
-        <v>309</v>
-      </c>
-      <c r="F57" t="s">
-        <v>309</v>
-      </c>
       <c r="G57" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H57" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I57" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2980,25 +2311,19 @@
         <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="D58">
         <v>12</v>
       </c>
-      <c r="E58" t="s">
-        <v>309</v>
-      </c>
-      <c r="F58" t="s">
-        <v>309</v>
-      </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H58" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I58" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3009,25 +2334,19 @@
         <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="D59">
         <v>126</v>
       </c>
-      <c r="E59" t="s">
-        <v>309</v>
-      </c>
-      <c r="F59" t="s">
-        <v>309</v>
-      </c>
       <c r="G59" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H59" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I59" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3038,25 +2357,19 @@
         <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
-      <c r="E60" t="s">
-        <v>309</v>
-      </c>
-      <c r="F60" t="s">
-        <v>309</v>
-      </c>
       <c r="G60" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H60" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I60" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3067,25 +2380,19 @@
         <v>166</v>
       </c>
       <c r="C61" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="D61">
         <v>302</v>
       </c>
-      <c r="E61" t="s">
-        <v>309</v>
-      </c>
-      <c r="F61" t="s">
-        <v>309</v>
-      </c>
       <c r="G61" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H61" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I61" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3096,25 +2403,19 @@
         <v>167</v>
       </c>
       <c r="C62" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="D62">
         <v>269</v>
       </c>
-      <c r="E62" t="s">
-        <v>309</v>
-      </c>
-      <c r="F62" t="s">
-        <v>309</v>
-      </c>
       <c r="G62" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H62" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I62" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3125,25 +2426,19 @@
         <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="D63">
         <v>77</v>
       </c>
-      <c r="E63" t="s">
-        <v>309</v>
-      </c>
-      <c r="F63" t="s">
-        <v>309</v>
-      </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H63" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I63" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3154,25 +2449,19 @@
         <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
-      <c r="E64" t="s">
-        <v>309</v>
-      </c>
-      <c r="F64" t="s">
-        <v>309</v>
-      </c>
       <c r="G64" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H64" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I64" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3183,25 +2472,19 @@
         <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="D65">
         <v>94</v>
       </c>
-      <c r="E65" t="s">
-        <v>309</v>
-      </c>
-      <c r="F65" t="s">
-        <v>309</v>
-      </c>
       <c r="G65" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H65" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I65" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3212,25 +2495,19 @@
         <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="D66">
         <v>30</v>
       </c>
-      <c r="E66" t="s">
-        <v>309</v>
-      </c>
-      <c r="F66" t="s">
-        <v>309</v>
-      </c>
       <c r="G66" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H66" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I66" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3241,25 +2518,19 @@
         <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
-      <c r="E67" t="s">
-        <v>309</v>
-      </c>
-      <c r="F67" t="s">
-        <v>309</v>
-      </c>
       <c r="G67" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H67" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I67" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3270,25 +2541,19 @@
         <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="D68">
         <v>30</v>
       </c>
-      <c r="E68" t="s">
-        <v>309</v>
-      </c>
-      <c r="F68" t="s">
-        <v>309</v>
-      </c>
       <c r="G68" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H68" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I68" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3299,25 +2564,19 @@
         <v>147</v>
       </c>
       <c r="C69" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="D69">
         <v>30</v>
       </c>
-      <c r="E69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F69" t="s">
-        <v>309</v>
-      </c>
       <c r="G69" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H69" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I69" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3328,25 +2587,19 @@
         <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="D70">
         <v>51</v>
       </c>
-      <c r="E70" t="s">
-        <v>309</v>
-      </c>
-      <c r="F70" t="s">
-        <v>309</v>
-      </c>
       <c r="G70" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H70" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I70" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3357,25 +2610,19 @@
         <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c r="D71">
         <v>37</v>
       </c>
-      <c r="E71" t="s">
-        <v>309</v>
-      </c>
-      <c r="F71" t="s">
-        <v>309</v>
-      </c>
       <c r="G71" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H71" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I71" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3386,25 +2633,19 @@
         <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>140</v>
       </c>
       <c r="D72">
         <v>22</v>
       </c>
-      <c r="E72" t="s">
-        <v>309</v>
-      </c>
-      <c r="F72" t="s">
-        <v>309</v>
-      </c>
       <c r="G72" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H72" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I72" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3415,25 +2656,19 @@
         <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="D73">
         <v>108</v>
       </c>
-      <c r="E73" t="s">
-        <v>309</v>
-      </c>
-      <c r="F73" t="s">
-        <v>309</v>
-      </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H73" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I73" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3444,25 +2679,19 @@
         <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="D74">
         <v>151</v>
       </c>
-      <c r="E74" t="s">
-        <v>309</v>
-      </c>
-      <c r="F74" t="s">
-        <v>309</v>
-      </c>
       <c r="G74" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H74" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I74" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3473,25 +2702,19 @@
         <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="D75">
         <v>59</v>
       </c>
-      <c r="E75" t="s">
-        <v>309</v>
-      </c>
-      <c r="F75" t="s">
-        <v>309</v>
-      </c>
       <c r="G75" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H75" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I75" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3502,25 +2725,19 @@
         <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="D76">
         <v>54</v>
       </c>
-      <c r="E76" t="s">
-        <v>309</v>
-      </c>
-      <c r="F76" t="s">
-        <v>309</v>
-      </c>
       <c r="G76" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H76" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I76" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3531,25 +2748,19 @@
         <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="D77">
         <v>60</v>
       </c>
-      <c r="E77" t="s">
-        <v>309</v>
-      </c>
-      <c r="F77" t="s">
-        <v>309</v>
-      </c>
       <c r="G77" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H77" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I77" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3560,25 +2771,19 @@
         <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="D78">
         <v>103</v>
       </c>
-      <c r="E78" t="s">
-        <v>309</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
-      </c>
       <c r="G78" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H78" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I78" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3589,25 +2794,19 @@
         <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="D79">
         <v>25</v>
       </c>
-      <c r="E79" t="s">
-        <v>309</v>
-      </c>
-      <c r="F79" t="s">
-        <v>309</v>
-      </c>
       <c r="G79" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H79" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I79" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3618,25 +2817,19 @@
         <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="D80">
         <v>11</v>
       </c>
-      <c r="E80" t="s">
-        <v>309</v>
-      </c>
-      <c r="F80" t="s">
-        <v>309</v>
-      </c>
       <c r="G80" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H80" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I80" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3647,25 +2840,19 @@
         <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c r="D81">
         <v>5</v>
       </c>
-      <c r="E81" t="s">
-        <v>309</v>
-      </c>
-      <c r="F81" t="s">
-        <v>309</v>
-      </c>
       <c r="G81" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H81" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I81" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3676,25 +2863,19 @@
         <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="D82">
         <v>6</v>
       </c>
-      <c r="E82" t="s">
-        <v>309</v>
-      </c>
-      <c r="F82" t="s">
-        <v>309</v>
-      </c>
       <c r="G82" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H82" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I82" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3705,25 +2886,19 @@
         <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>279</v>
+        <v>175</v>
       </c>
       <c r="D83">
         <v>15</v>
       </c>
-      <c r="E83" t="s">
-        <v>309</v>
-      </c>
-      <c r="F83" t="s">
-        <v>309</v>
-      </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H83" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I83" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3734,25 +2909,19 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="D84">
         <v>10</v>
       </c>
-      <c r="E84" t="s">
-        <v>309</v>
-      </c>
-      <c r="F84" t="s">
-        <v>309</v>
-      </c>
       <c r="G84" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H84" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I84" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3763,25 +2932,19 @@
         <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="D85">
         <v>10</v>
       </c>
-      <c r="E85" t="s">
-        <v>309</v>
-      </c>
-      <c r="F85" t="s">
-        <v>309</v>
-      </c>
       <c r="G85" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H85" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I85" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3792,25 +2955,19 @@
         <v>142</v>
       </c>
       <c r="C86" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
-      <c r="E86" t="s">
-        <v>309</v>
-      </c>
-      <c r="F86" t="s">
-        <v>309</v>
-      </c>
       <c r="G86" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H86" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I86" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3821,25 +2978,19 @@
         <v>177</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="D87">
         <v>10</v>
       </c>
-      <c r="E87" t="s">
-        <v>309</v>
-      </c>
-      <c r="F87" t="s">
-        <v>309</v>
-      </c>
       <c r="G87" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H87" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I87" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3850,25 +3001,19 @@
         <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="D88">
         <v>8</v>
       </c>
-      <c r="E88" t="s">
-        <v>309</v>
-      </c>
-      <c r="F88" t="s">
-        <v>309</v>
-      </c>
       <c r="G88" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H88" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I88" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3879,25 +3024,19 @@
         <v>177</v>
       </c>
       <c r="C89" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="D89">
         <v>18</v>
       </c>
-      <c r="E89" t="s">
-        <v>309</v>
-      </c>
-      <c r="F89" t="s">
-        <v>309</v>
-      </c>
       <c r="G89" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H89" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I89" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3908,25 +3047,19 @@
         <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="D90">
         <v>55</v>
       </c>
-      <c r="E90" t="s">
-        <v>309</v>
-      </c>
-      <c r="F90" t="s">
-        <v>309</v>
-      </c>
       <c r="G90" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H90" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I90" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3937,25 +3070,19 @@
         <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="D91">
         <v>91</v>
       </c>
-      <c r="E91" t="s">
-        <v>309</v>
-      </c>
-      <c r="F91" t="s">
-        <v>309</v>
-      </c>
       <c r="G91" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H91" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I91" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3966,25 +3093,19 @@
         <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="D92">
         <v>20</v>
       </c>
-      <c r="E92" t="s">
-        <v>309</v>
-      </c>
-      <c r="F92" t="s">
-        <v>309</v>
-      </c>
       <c r="G92" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H92" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I92" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3995,25 +3116,19 @@
         <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="D93">
         <v>30</v>
       </c>
-      <c r="E93" t="s">
-        <v>309</v>
-      </c>
-      <c r="F93" t="s">
-        <v>309</v>
-      </c>
       <c r="G93" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H93" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I93" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4024,25 +3139,19 @@
         <v>180</v>
       </c>
       <c r="C94" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="D94">
         <v>31</v>
       </c>
-      <c r="E94" t="s">
-        <v>309</v>
-      </c>
-      <c r="F94" t="s">
-        <v>309</v>
-      </c>
       <c r="G94" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H94" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I94" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4053,25 +3162,19 @@
         <v>181</v>
       </c>
       <c r="C95" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="D95">
         <v>40</v>
       </c>
-      <c r="E95" t="s">
-        <v>309</v>
-      </c>
-      <c r="F95" t="s">
-        <v>309</v>
-      </c>
       <c r="G95" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H95" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I95" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4082,25 +3185,19 @@
         <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="D96">
         <v>17</v>
       </c>
-      <c r="E96" t="s">
-        <v>309</v>
-      </c>
-      <c r="F96" t="s">
-        <v>309</v>
-      </c>
       <c r="G96" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H96" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I96" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4111,25 +3208,19 @@
         <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="D97">
         <v>112</v>
       </c>
-      <c r="E97" t="s">
-        <v>309</v>
-      </c>
-      <c r="F97" t="s">
-        <v>309</v>
-      </c>
       <c r="G97" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H97" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I97" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4140,25 +3231,19 @@
         <v>184</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="D98">
         <v>57</v>
       </c>
-      <c r="E98" t="s">
-        <v>309</v>
-      </c>
-      <c r="F98" t="s">
-        <v>309</v>
-      </c>
       <c r="G98" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H98" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I98" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4169,25 +3254,19 @@
         <v>185</v>
       </c>
       <c r="C99" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="D99">
         <v>10</v>
       </c>
-      <c r="E99" t="s">
-        <v>309</v>
-      </c>
-      <c r="F99" t="s">
-        <v>309</v>
-      </c>
       <c r="G99" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H99" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I99" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4198,25 +3277,19 @@
         <v>186</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="D100">
         <v>24</v>
       </c>
-      <c r="E100" t="s">
-        <v>309</v>
-      </c>
-      <c r="F100" t="s">
-        <v>309</v>
-      </c>
       <c r="G100" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H100" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I100" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4227,25 +3300,19 @@
         <v>187</v>
       </c>
       <c r="C101" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="D101">
         <v>14</v>
       </c>
-      <c r="E101" t="s">
-        <v>309</v>
-      </c>
-      <c r="F101" t="s">
-        <v>309</v>
-      </c>
       <c r="G101" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H101" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I101" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4255,23 +3322,20 @@
       <c r="B102" t="s">
         <v>188</v>
       </c>
+      <c r="C102" t="s">
+        <v>188</v>
+      </c>
       <c r="D102">
         <v>10</v>
       </c>
-      <c r="E102" t="s">
-        <v>309</v>
-      </c>
-      <c r="F102" t="s">
-        <v>309</v>
-      </c>
       <c r="G102" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H102" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I102" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4282,25 +3346,19 @@
         <v>189</v>
       </c>
       <c r="C103" t="s">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="D103">
         <v>22</v>
       </c>
-      <c r="E103" t="s">
-        <v>309</v>
-      </c>
-      <c r="F103" t="s">
-        <v>309</v>
-      </c>
       <c r="G103" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H103" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I103" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4311,25 +3369,19 @@
         <v>190</v>
       </c>
       <c r="C104" t="s">
-        <v>299</v>
+        <v>190</v>
       </c>
       <c r="D104">
         <v>22</v>
       </c>
-      <c r="E104" t="s">
-        <v>309</v>
-      </c>
-      <c r="F104" t="s">
-        <v>309</v>
-      </c>
       <c r="G104" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H104" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I104" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4340,25 +3392,19 @@
         <v>191</v>
       </c>
       <c r="C105" t="s">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="D105">
         <v>63</v>
       </c>
-      <c r="E105" t="s">
-        <v>309</v>
-      </c>
-      <c r="F105" t="s">
-        <v>309</v>
-      </c>
       <c r="G105" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H105" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I105" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4369,25 +3415,19 @@
         <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="D106">
         <v>215</v>
       </c>
-      <c r="E106" t="s">
-        <v>309</v>
-      </c>
-      <c r="F106" t="s">
-        <v>309</v>
-      </c>
       <c r="G106" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H106" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I106" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4398,25 +3438,19 @@
         <v>159</v>
       </c>
       <c r="C107" t="s">
-        <v>302</v>
+        <v>159</v>
       </c>
       <c r="D107">
         <v>361</v>
       </c>
-      <c r="E107" t="s">
-        <v>309</v>
-      </c>
-      <c r="F107" t="s">
-        <v>309</v>
-      </c>
       <c r="G107" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H107" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I107" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4427,25 +3461,19 @@
         <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>303</v>
+        <v>198</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108" t="s">
-        <v>309</v>
-      </c>
-      <c r="F108" t="s">
-        <v>309</v>
-      </c>
       <c r="G108" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H108" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I108" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4455,26 +3483,17 @@
       <c r="B109" t="s">
         <v>194</v>
       </c>
-      <c r="C109" t="s">
-        <v>304</v>
-      </c>
       <c r="D109">
         <v>19</v>
       </c>
-      <c r="E109" t="s">
-        <v>309</v>
-      </c>
-      <c r="F109" t="s">
-        <v>309</v>
-      </c>
       <c r="G109" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H109" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I109" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4484,26 +3503,17 @@
       <c r="B110" t="s">
         <v>195</v>
       </c>
-      <c r="C110" t="s">
-        <v>305</v>
-      </c>
       <c r="D110">
         <v>300</v>
       </c>
-      <c r="E110" t="s">
-        <v>309</v>
-      </c>
-      <c r="F110" t="s">
-        <v>309</v>
-      </c>
       <c r="G110" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H110" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I110" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4513,26 +3523,17 @@
       <c r="B111" t="s">
         <v>196</v>
       </c>
-      <c r="C111" t="s">
-        <v>306</v>
-      </c>
       <c r="D111">
         <v>250</v>
       </c>
-      <c r="E111" t="s">
-        <v>309</v>
-      </c>
-      <c r="F111" t="s">
-        <v>309</v>
-      </c>
       <c r="G111" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H111" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I111" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4542,26 +3543,17 @@
       <c r="B112" t="s">
         <v>196</v>
       </c>
-      <c r="C112" t="s">
-        <v>307</v>
-      </c>
       <c r="D112">
         <v>250</v>
       </c>
-      <c r="E112" t="s">
-        <v>309</v>
-      </c>
-      <c r="F112" t="s">
-        <v>309</v>
-      </c>
       <c r="G112" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H112" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I112" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4571,26 +3563,17 @@
       <c r="B113" t="s">
         <v>197</v>
       </c>
-      <c r="C113" t="s">
-        <v>308</v>
-      </c>
       <c r="D113">
         <v>4</v>
       </c>
-      <c r="E113" t="s">
-        <v>309</v>
-      </c>
-      <c r="F113" t="s">
-        <v>309</v>
-      </c>
       <c r="G113" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="H113" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I113" t="s">
-        <v>313</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
